--- a/frontend/students.xlsx
+++ b/frontend/students.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28712"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fetho\OneDrive\Desktop\freelance project\school_rahim\frontend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8D668E-F511-46CF-A63B-B82D079959B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F442D13-5D34-4951-B65E-F178EF1EFC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1245" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1744,7 +1744,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
@@ -1759,12 +1759,16 @@
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2047,13 +2051,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P446"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.42578125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="51" x14ac:dyDescent="0.25">
@@ -2069,7 +2078,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -2102,7 +2111,7 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="8" t="s">
         <v>15</v>
       </c>
     </row>
@@ -24358,5 +24367,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>